--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1188"/>
+  <dimension ref="A1:I1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43388,6 +43388,43 @@
         </is>
       </c>
     </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1189"/>
+  <dimension ref="A1:I1190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43425,6 +43425,41 @@
         </is>
       </c>
     </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>43700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1190"/>
+  <dimension ref="A1:I1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43460,6 +43460,41 @@
         <v>43700</v>
       </c>
     </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>9900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1191"/>
+  <dimension ref="A1:I1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43495,6 +43495,41 @@
         <v>9900</v>
       </c>
     </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>6500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43530,6 +43530,41 @@
         <v>6500</v>
       </c>
     </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43565,6 +43565,80 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43639,6 +43639,80 @@
         </is>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43713,6 +43713,41 @@
         </is>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43748,6 +43748,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43783,6 +43783,41 @@
         <v>700</v>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>4300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43818,6 +43818,41 @@
         <v>4300</v>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43853,6 +43853,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43888,6 +43888,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2127"/>
+  <dimension ref="A1:I2128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76265,6 +76265,41 @@
         </is>
       </c>
     </row>
+    <row r="2128">
+      <c r="A2128" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E2128" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2128" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2128" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2128" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2128" t="n">
+        <v>40300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2128"/>
+  <dimension ref="A1:I2129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76300,6 +76300,41 @@
         <v>40300</v>
       </c>
     </row>
+    <row r="2129">
+      <c r="A2129" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E2129" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2129" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G2129" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2129" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2129" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2129"/>
+  <dimension ref="A1:I2130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76335,6 +76335,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2130">
+      <c r="A2130" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D2130" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E2130" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2130" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2130" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2130" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2130" t="n">
+        <v>24000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2130"/>
+  <dimension ref="A1:I2131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76370,6 +76370,41 @@
         <v>24000</v>
       </c>
     </row>
+    <row r="2131">
+      <c r="A2131" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D2131" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E2131" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2131" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2131" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2131" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2131" t="n">
+        <v>22000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2131"/>
+  <dimension ref="A1:I2132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76405,6 +76405,43 @@
         <v>22000</v>
       </c>
     </row>
+    <row r="2132">
+      <c r="A2132" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E2132" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2132" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2132" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2132" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2132"/>
+  <dimension ref="A1:I2133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76442,6 +76442,43 @@
         </is>
       </c>
     </row>
+    <row r="2133">
+      <c r="A2133" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E2133" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2133" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2133" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2133"/>
+  <dimension ref="A1:I2134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76479,6 +76479,41 @@
         </is>
       </c>
     </row>
+    <row r="2134">
+      <c r="A2134" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E2134" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2134" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2134" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2134" t="n">
+        <v>5100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2134"/>
+  <dimension ref="A1:I2135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76514,6 +76514,41 @@
         <v>5100</v>
       </c>
     </row>
+    <row r="2135">
+      <c r="A2135" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D2135" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E2135" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2135" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2135" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2135" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2135" t="n">
+        <v>800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2135"/>
+  <dimension ref="A1:I2136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76549,6 +76549,43 @@
         <v>800</v>
       </c>
     </row>
+    <row r="2136">
+      <c r="A2136" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D2136" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E2136" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2136" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2136" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2136" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2136"/>
+  <dimension ref="A1:I2137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76586,6 +76586,41 @@
         </is>
       </c>
     </row>
+    <row r="2137">
+      <c r="A2137" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E2137" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2137" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2137" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2137" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2137" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2137"/>
+  <dimension ref="A1:I2138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76621,6 +76621,43 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="2138">
+      <c r="A2138" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D2138" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E2138" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2138" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G2138" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2138" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2138" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2138"/>
+  <dimension ref="A1:I2139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76658,6 +76658,43 @@
         </is>
       </c>
     </row>
+    <row r="2139">
+      <c r="A2139" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D2139" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E2139" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2139" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G2139" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H2139" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2139" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2139"/>
+  <dimension ref="A1:I2140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76695,6 +76695,41 @@
         </is>
       </c>
     </row>
+    <row r="2140">
+      <c r="A2140" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D2140" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E2140" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2140" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2140" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2140" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2140" t="n">
+        <v>1800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2140"/>
+  <dimension ref="A1:I2141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76730,6 +76730,41 @@
         <v>1800</v>
       </c>
     </row>
+    <row r="2141">
+      <c r="A2141" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E2141" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2141" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2141" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2141" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7190.xlsx
+++ b/data/7190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2141"/>
+  <dimension ref="A1:I2142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76765,6 +76765,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2142">
+      <c r="A2142" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>7190</t>
+        </is>
+      </c>
+      <c r="D2142" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="E2142" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2142" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2142" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2142" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2142" t="n">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
